--- a/Task4/Bug-Report.xlsx
+++ b/Task4/Bug-Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erdi\Desktop\BitexenTask\Task4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FBAEA8-2A17-469F-ABD4-2E8AC2D20242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920F52EA-366E-4E56-ABDB-2C92B3839568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Category</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Platform</t>
   </si>
   <si>
-    <t>Operating System</t>
-  </si>
-  <si>
     <t>Bug details</t>
   </si>
   <si>
@@ -114,12 +111,6 @@
     <t>Mobil Uygulamada, Hızlı Al/Sat Tab'inde &gt; Coin açıklamarı, herhangi bir coinin Pro Buttonuna tıkladıktan sonra geri gelindiğinde açılmamaktadır.</t>
   </si>
   <si>
-    <t>Bug Videosu Dosya Ekindedir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android </t>
-  </si>
-  <si>
     <t>App</t>
   </si>
   <si>
@@ -130,9 +121,6 @@
   </si>
   <si>
     <t>Coin Detay Sayfasının Görüntülenmiyor.</t>
-  </si>
-  <si>
-    <t>WİFİ bağlantısı ile ve Mobil İnternet bağlantısı ile Android işletim sisteminde, Pro Butonuna tıklandıktan sonra geri tuşuna basıp, coin list sayfasına geri gelindiğinde ve coin detayları için Coin isminin yanında bulunan "i" işaretine tıklandığında normalde gözüken coin açıklama sayfaları hiçbir coin'de gözükmüyor.</t>
   </si>
   <si>
     <t>Minor/Moderate</t>
@@ -180,6 +168,21 @@
       </rPr>
       <t>Coin detay sayfası sürekli beyaz ekran geliyor.</t>
     </r>
+  </si>
+  <si>
+    <t>Android 11.0</t>
+  </si>
+  <si>
+    <t>XIOMI Redmi Note 8 Pro</t>
+  </si>
+  <si>
+    <t>Device Model</t>
+  </si>
+  <si>
+    <t>Bug Videosu Dosyadadır.</t>
+  </si>
+  <si>
+    <t>WİFİ bağlantısı ile ve Mobil İnternet bağlantısı ile Android işletim sisteminde,Herhangi bir coinin Pro Butonuna tıklandıktan sonra geri tuşuna basıp, coin list sayfasına geri gelindiğinde ve coin detayları için Coin isminin yanında bulunan "i" işaretine tıklandığında normalde gözüken coin açıklama sayfası hiçbir coin'de gözükmemektedir.</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +272,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,21 +357,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -377,6 +371,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -732,181 +741,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14">
-        <v>44639</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="13" t="s">
+    <row r="12" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+    <row r="14" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="13" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+    <row r="17" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="11" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
